--- a/CPU負荷状況のデータの採取と閲覧の仕方4選.xlsx
+++ b/CPU負荷状況のデータの採取と閲覧の仕方4選.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>データ採取</t>
     <rPh sb="3" eb="5">
@@ -78,10 +78,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VisualStudio2022</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>必要
 (VisualStudio2022)</t>
     <rPh sb="0" eb="2">
@@ -94,13 +90,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>該当ページ</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -175,29 +164,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VisualStudioが必要なので実装中向け。</t>
-    <rPh sb="13" eb="15">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ジッソウチュウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ツールインストール必要だが小さなツール。</t>
-    <rPh sb="9" eb="11">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大き目のツールのインストールが必要。</t>
     <rPh sb="0" eb="1">
       <t>オオ</t>
@@ -343,6 +309,206 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VisualStudioが必要なので実装中向け。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>短時間向け（～5分程度）。</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ジッソウチュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>タンジカン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ツールインストール必要だが小さなツール。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>短時間向け（～5分程度）。</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出来ること</t>
+    <rPh sb="0" eb="2">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ保存時間</t>
+    <rPh sb="2" eb="4">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～5分（長時間も可だがデータが大きくなり開くのに時間かかる）</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>チョウジカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログを残す</t>
+    <rPh sb="3" eb="4">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可能？
+（.diagsession？）</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可能
+（.diagsession）</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可能
+（etl）</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コード上の負荷個所確認、コールスタック解析など</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>フカカショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◎？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水色は、自分でまだ見てないところ</t>
+    <rPh sb="0" eb="2">
+      <t>ミズイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長時間もOK（30分程度は取れた）</t>
+    <rPh sb="0" eb="3">
+      <t>チョウジカン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フンテイド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当自分の記事ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -351,7 +517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,8 +568,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,8 +596,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -498,6 +684,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +761,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -851,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:N16"/>
+  <dimension ref="D3:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -869,25 +1090,31 @@
     <col min="10" max="10" width="26.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
     <col min="12" max="12" width="35.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="41.25" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="24.625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="18" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="41.25" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="18" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D4" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="11" t="s">
@@ -899,20 +1126,25 @@
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="Q4" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="4:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>4</v>
@@ -926,55 +1158,71 @@
       <c r="K5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="16"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="4:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="7" spans="4:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>6</v>
@@ -982,114 +1230,144 @@
       <c r="I7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="8" spans="4:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>30</v>
+      <c r="M8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="4:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>31</v>
+      <c r="M9" s="22"/>
+      <c r="N9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E10" s="1"/>
       <c r="K10" s="17" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1"/>
-    <hyperlink ref="N6" r:id="rId2"/>
-    <hyperlink ref="N8" r:id="rId3"/>
-    <hyperlink ref="N9" r:id="rId4"/>
+    <hyperlink ref="Q7" r:id="rId1"/>
+    <hyperlink ref="Q6" r:id="rId2"/>
+    <hyperlink ref="Q8" r:id="rId3"/>
+    <hyperlink ref="Q9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>

--- a/CPU負荷状況のデータの採取と閲覧の仕方4選.xlsx
+++ b/CPU負荷状況のデータの採取と閲覧の仕方4選.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>データ採取</t>
     <rPh sb="3" eb="5">
@@ -37,14 +37,6 @@
     <rPh sb="3" eb="5">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>④</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -218,54 +210,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VSパフォーマンスプロファイラで採取＆見る</t>
-    <rPh sb="16" eb="18">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VS diagnostics.exeで採取、VisualStudioで見る</t>
-    <rPh sb="19" eb="21">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>WindowsPerformanceRecorderUI(GUI)で採取、WindowsPerformanceAnalyzerで見る</t>
-    <rPh sb="34" eb="36">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>WindowsPerformanceRecorder(CLI)で採取、WindowsPerformanceAnalyzerで見る</t>
-    <rPh sb="32" eb="34">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -510,6 +454,40 @@
     <rPh sb="5" eb="7">
       <t>キジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【CPU負荷計測】VisualStudioパフォーマンスプロファイラでデータ採取と解析する</t>
+    <rPh sb="38" eb="40">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【CPU負荷計測】VS diagnostics.exeでデータ採取しVisualStudioで解析する</t>
+    <rPh sb="31" eb="33">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【CPU負荷計測】WindowsPerformanceRecorder(CLI版WPR)でデータ採取しWindowsPerformanceAnalyzer(WPA)で解析する</t>
+    <rPh sb="48" eb="50">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【CPU負荷計測】WindowsPerformanceRecorderUI(WPRUI)でデータ採取しWindowsPerformanceAnalyzer(WPA)で解析する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1075,7 +1053,7 @@
   <dimension ref="D3:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1099,22 +1077,22 @@
   <sheetData>
     <row r="3" spans="4:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N3" s="20"/>
     </row>
     <row r="4" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D4" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="11" t="s">
@@ -1126,214 +1104,214 @@
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N4" s="24"/>
       <c r="O4" s="25"/>
       <c r="Q4" s="15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="4:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="5" t="s">
-        <v>31</v>
+      <c r="D6" s="5">
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="M6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="4:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="5" t="s">
-        <v>30</v>
+      <c r="D7" s="5">
+        <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="4:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="5" t="s">
-        <v>2</v>
+      <c r="D8" s="5">
+        <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="4:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="5" t="s">
-        <v>3</v>
+      <c r="D9" s="5">
+        <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="4:17" x14ac:dyDescent="0.15">
       <c r="E10" s="1"/>
       <c r="K10" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
